--- a/biology/Botanique/Émile_Chateau/Émile_Chateau.xlsx
+++ b/biology/Botanique/Émile_Chateau/Émile_Chateau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Chateau</t>
+          <t>Émile_Chateau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Chateau (16 octobre 1866 à Uchon - 15 avril 1952 à Charrecey) est un botaniste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Chateau</t>
+          <t>Émile_Chateau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Instituteur, il est successivement directeur d'écoles à Saisy, Mâcon, Bourg-le-Comte, Antully et Matour (communes de Saône-et-Loire).
-Se passionnant pour l’étude des végétaux, Émile Chateau expose en août 1895 sa théorie du regroupement naturel des plantes par ses relevés floristiques comparés à Salornay-sur-Guye (Saône-et-Loire)[1].Sa publication sur les associations végétales en 1912 est considérée par certains, notamment par le Pr Georges Kuhnholtz-Lordat, comme à l'origine d’une science nouvelle : la phytosociologie.
-La Société botanique de France lui décerne, en 1927, le prix de Coincy[2] adopté en 1904 et qui récompense une recherche en taxinomie. Prix généralement réservé aux professeurs des universités.
-Il est inhumé au cimetière de Charrecey[3].
+Se passionnant pour l’étude des végétaux, Émile Chateau expose en août 1895 sa théorie du regroupement naturel des plantes par ses relevés floristiques comparés à Salornay-sur-Guye (Saône-et-Loire).Sa publication sur les associations végétales en 1912 est considérée par certains, notamment par le Pr Georges Kuhnholtz-Lordat, comme à l'origine d’une science nouvelle : la phytosociologie.
+La Société botanique de France lui décerne, en 1927, le prix de Coincy adopté en 1904 et qui récompense une recherche en taxinomie. Prix généralement réservé aux professeurs des universités.
+Il est inhumé au cimetière de Charrecey.
 La Ville de Chalon-sur-Saône (Saône-et-Loire) réalise à partir de 1953 un jardin géobotanique selon son concept "La plante dans son milieu" imaginé 42 ans plus tôt sur le plateau d'Antully près d'Autun (Saône-et-Loire).
 Émile Chateau fut membre de l’Académie de Mâcon, qui lui a dédié une conférence le 16 novembre 2002, à l'occasion de son jubilé.
 Les archives inédites du savant ont été remises à l'Académie de Mâcon par sa petite-fille Mylène Tuffier-Leclercq, tandis que son herbier a été confié au Muséum d'Autun (Saône-et-Loire).
-Il s'intéressa entre autres au passé de Bourg-le-Comte, commune de Saône-et-Loire dont il fut instituteur et dont il écrivit l'histoire[4].
+Il s'intéressa entre autres au passé de Bourg-le-Comte, commune de Saône-et-Loire dont il fut instituteur et dont il écrivit l'histoire.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Chateau</t>
+          <t>Émile_Chateau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Sources et bibliographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Au Jardin Secret de Maître Chateau par Pr Jean Pelletier-Thibert de l'Académie de Mâcon (commissaire général du Jubilé 2002, conférencier, biographe du savant), édité en 2002 par « La Médiathèque de Bourgogne » (responsable du Mémorial Émile Chateau)
 Les idées de E. Chateau sur les associations végétales par Pr Georges Kuhnholtz-Lordat in Bulletin de la Société botanique de France de 1947, Tome 94, 3-4, p. 98 à 100.
